--- a/Data/Final_Output/Stats_Summary_Final.xlsx
+++ b/Data/Final_Output/Stats_Summary_Final.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
     <sheet name="Player List" sheetId="2" r:id="rId2"/>
     <sheet name="Summary_Alexander Hleb" sheetId="3" r:id="rId3"/>
-    <sheet name="Summary_redbull njr" sheetId="4" r:id="rId4"/>
+    <sheet name="Summary_HOME" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -40,7 +40,7 @@
     <t>Detailed Stats Category</t>
   </si>
   <si>
-    <t>redbull njr</t>
+    <t>HOME</t>
   </si>
   <si>
     <t>Alexander Hleb</t>
@@ -64,15 +64,15 @@
     <t>assists</t>
   </si>
   <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>LW</t>
+  </si>
+  <si>
     <t>ST</t>
   </si>
   <si>
-    <t>LW</t>
-  </si>
-  <si>
-    <t>RW</t>
-  </si>
-  <si>
     <t>CAM</t>
   </si>
   <si>
@@ -100,34 +100,34 @@
     <t>Hleb</t>
   </si>
   <si>
-    <t>B. Charlton</t>
-  </si>
-  <si>
-    <t>N. Ono</t>
-  </si>
-  <si>
-    <t>A. Banks</t>
-  </si>
-  <si>
-    <t>O. Gillet</t>
-  </si>
-  <si>
-    <t>C. Bernard</t>
-  </si>
-  <si>
-    <t>s. karl</t>
-  </si>
-  <si>
-    <t>I. Lanzini</t>
-  </si>
-  <si>
-    <t>P. Hansen</t>
-  </si>
-  <si>
-    <t>S. Ribeiro</t>
-  </si>
-  <si>
-    <t>M. Lund</t>
+    <t>Z. Shen</t>
+  </si>
+  <si>
+    <t>A. Ji</t>
+  </si>
+  <si>
+    <t>E. Chang</t>
+  </si>
+  <si>
+    <t>T. Morel</t>
+  </si>
+  <si>
+    <t>K. Kowalczyk</t>
+  </si>
+  <si>
+    <t>E. Monteiro</t>
+  </si>
+  <si>
+    <t>C. Hassan</t>
+  </si>
+  <si>
+    <t>O. John</t>
+  </si>
+  <si>
+    <t>Y. Clerc</t>
+  </si>
+  <si>
+    <t>J. Al Shahrani</t>
   </si>
   <si>
     <t>Stat</t>
@@ -574,7 +574,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>92</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -648,13 +648,13 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -665,10 +665,10 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>7.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -685,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -699,7 +699,7 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -733,7 +733,7 @@
         <v>32</v>
       </c>
       <c r="C8">
-        <v>6.4</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -750,7 +750,7 @@
         <v>33</v>
       </c>
       <c r="C9">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <v>7.1</v>
+        <v>6.4</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>36</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>7.1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -860,7 +860,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -868,7 +868,7 @@
         <v>42</v>
       </c>
       <c r="B6">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -876,7 +876,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -884,7 +884,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -892,7 +892,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -900,7 +900,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -908,7 +908,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -916,7 +916,7 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -932,7 +932,7 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -940,7 +940,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -956,7 +956,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>17.6</v>
+        <v>16.8</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -964,7 +964,7 @@
         <v>54</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>7.9</v>
       </c>
     </row>
   </sheetData>
@@ -993,7 +993,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1001,7 +1001,7 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1009,7 +1009,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1017,7 +1017,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1025,7 +1025,7 @@
         <v>42</v>
       </c>
       <c r="B6">
-        <v>164</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1033,7 +1033,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1041,7 +1041,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>128</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1049,7 +1049,7 @@
         <v>45</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1057,7 +1057,7 @@
         <v>46</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1065,7 +1065,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>17</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1073,7 +1073,7 @@
         <v>48</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1089,7 +1089,7 @@
         <v>50</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1097,7 +1097,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1113,7 +1113,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>12.9</v>
+        <v>12.1</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1121,7 +1121,7 @@
         <v>54</v>
       </c>
       <c r="B18">
-        <v>5.7</v>
+        <v>4.7</v>
       </c>
     </row>
   </sheetData>
